--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
+  </si>
+  <si>
+    <t>TOTAL TARDINESS</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -650,20 +653,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="0" t="str">
-        <f>SUM(F5:F19)</f>
+      <c r="B19" s="5" t="str">
+        <f>COUNT(F5:F19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -160,7 +160,40 @@
     <t>NUMBER OF TIMES TARDY</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>TOTAL TARDINESS</t>
+  </si>
+  <si>
+    <t>TOTAL OT HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>ACCUMULATED OT</t>
+  </si>
+  <si>
+    <t>LATES</t>
+  </si>
+  <si>
+    <t>ACCUMULATED VL</t>
+  </si>
+  <si>
+    <t>ACCUMULATED SL</t>
+  </si>
+  <si>
+    <t>VL BALANCE</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -277,7 +310,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -293,6 +326,11 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="98.78988764044946"/>
+    <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
+    <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="14" max="14" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="15" max="15" bestFit="false" customWidth="false" hidden="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -353,9 +391,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
@@ -373,9 +409,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
@@ -397,9 +431,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -421,9 +453,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="n">
         <v>0.5</v>
@@ -443,9 +473,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
@@ -463,9 +491,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
@@ -483,9 +509,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
@@ -507,9 +531,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="n">
         <v>0.5</v>
@@ -529,9 +551,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -553,9 +573,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
@@ -577,9 +595,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
@@ -603,9 +619,7 @@
       <c r="F16" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -623,9 +637,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
@@ -643,9 +655,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -656,26 +666,461 @@
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5" t="str">
-        <f>COUNT(F5:F19)</f>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="str">
         <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I18)</f>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>INT(LEFT(B25,1))</f>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>RIGHT(B25,LEN(B25)-2)</f>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>INT(LEFT(L24,1))</f>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>RIGHT(L24,LEN(L24)-2)+0</f>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>K24*8*60+M24*60+N24</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>INT(LEFT(B26,1))</f>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>RIGHT(B26,LEN(B26)-2)</f>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>INT(LEFT(L25,1))</f>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>RIGHT(L25,LEN(L25)-2)+0</f>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>K25*8*60+M25*60+N25</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>INT(LEFT(L26,1))</f>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>K26*8*60+M26*60+N26</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -781,10 +781,10 @@
         <v>49</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>SUM(H5:H18)</f>
+        <f>SUM(H5:H15)</f>
       </c>
       <c r="I22" s="5" t="str">
-        <f>SUM(I5:I18)</f>
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J22" s="5" t="s">
         <v>49</v>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,111 +50,106 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
-  </si>
-  <si>
-    <t>Saturday</t>
+    <t>02-10-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>08:14:53</t>
+  </si>
+  <si>
+    <t>13:08:32</t>
+  </si>
+  <si>
+    <t> Others|Pull-out Smartbro sticks fro Sta. Mesa and QC LPG|
+</t>
+  </si>
+  <si>
+    <t>02-11-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>15:34:57</t>
+  </si>
+  <si>
+    <t>19:01:22</t>
+  </si>
+  <si>
+    <t>" Others|Pull-out smarbro stick, re-train PDIS user for Paredes Gasul in Cavite City.|"
+</t>
+  </si>
+  <si>
+    <t>02-12-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>07:52:04</t>
+  </si>
+  <si>
+    <t>18:42:43</t>
   </si>
   <si>
     <t>
 </t>
   </si>
   <si>
-    <t>03-22-2015</t>
+    <t>02-13-2015</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>08:13:23</t>
+  </si>
+  <si>
+    <t>17:39:29</t>
+  </si>
+  <si>
+    <t>02-14-2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>02-15-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>02-16-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>08:25:53</t>
-  </si>
-  <si>
-    <t>18:55:59</t>
-  </si>
-  <si>
-    <t>03-24-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>08:27:01</t>
-  </si>
-  <si>
-    <t>13:11:02</t>
-  </si>
-  <si>
-    <t> Others|Mar 24 - Mar 27:  Urdaneta Marketing Corporation Implementation Mar 30 - Apr 1: Nelzen Twins Marketing (Pampanga) Implementation|
+    <t> Travel to Bataan Gas from 3AM - 7AM. Others|Petron Live Implementation|
 </t>
   </si>
   <si>
-    <t>03-25-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>03-26-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>03-27-2015</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>15:48:01</t>
-  </si>
-  <si>
-    <t>16:38:52</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>08:12:51</t>
-  </si>
-  <si>
-    <t>18:42:00</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>08:22:06</t>
-  </si>
-  <si>
-    <t>19:08:14</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>08:31:11</t>
-  </si>
-  <si>
-    <t>19:34:12</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
+    <t>02-17-2015</t>
+  </si>
+  <si>
+    <t> Others|Petron Live Implementation|
+</t>
+  </si>
+  <si>
+    <t>02-18-2015</t>
+  </si>
+  <si>
+    <t>02-19-2015</t>
+  </si>
+  <si>
+    <t> Top Gasul Trading in Pampanga Training. Others|Petron Live Implementation|
+</t>
+  </si>
+  <si>
+    <t>02-20-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -187,7 +182,7 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>6.4.0</t>
+    <t>7.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
@@ -310,7 +305,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -325,7 +320,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="34.33483146067415"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="98.78988764044946"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.78988764044945"/>
     <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
     <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
@@ -387,440 +382,601 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="5" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="5" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="5" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J14" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>COUNT(F5:F15)</f>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J16" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>SUM(F5:F15)</f>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>SUM(G5:G15)</f>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J18" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>COUNT(F5:F18)</f>
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>SUM(H5:H15)</f>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f>SUM(F5:F18)</f>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>FLOOR(G18/8,1,1)&amp;"."&amp;FLOOR(MOD(G18,8),1,1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1,1))*60</f>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f>SUM(G5:G18)</f>
+        <v>46</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>INT(LEFT(B22,1))</f>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>RIGHT(B22,LEN(B22)-2)</f>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>INT(LEFT(L21,1))</f>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>RIGHT(L21,LEN(L21)-2)+0</f>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>K21*8*60+M21*60+N21</f>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>INT(LEFT(B23,1))</f>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>RIGHT(B23,LEN(B23)-2)</f>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>INT(LEFT(L22,1))</f>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>RIGHT(L22,LEN(L22)-2)+0</f>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>K22*8*60+M22*60+N22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f>SUM(I5:I15)</f>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23"/>
+      <c r="B23" s="5" t="str">
+        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>INT(LEFT(B24,1))</f>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>RIGHT(B24,LEN(B24)-2)</f>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>INT(LEFT(L23,1))</f>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>RIGHT(L23,LEN(L23)-2)+0</f>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>K23*8*60+M23*60+N23</f>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -842,32 +998,32 @@
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5" t="str">
-        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -887,225 +1043,84 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="5" t="str">
-        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>INT(LEFT(B27,1))</f>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f>RIGHT(B27,LEN(B27)-2)</f>
+        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f>INT(LEFT(L26,1))</f>
+        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>K26*8*60+M26*60+N26</f>
+        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>INT(LEFT(B28,1))</f>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f>RIGHT(B28,LEN(B28)-2)</f>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>INT(LEFT(L27,1))</f>
-      </c>
-      <c r="N27" s="5" t="str">
-        <f>RIGHT(L27,LEN(L27)-2)+0</f>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f>K27*8*60+M27*60+N27</f>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>INT(LEFT(B29,1))</f>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f>RIGHT(B29,LEN(B29)-2)</f>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>INT(LEFT(L28,1))</f>
-      </c>
-      <c r="N28" s="5" t="str">
-        <f>RIGHT(L28,LEN(L28)-2)+0</f>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f>K28*8*60+M28*60+N28</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
-      </c>
-      <c r="N29" s="5" t="str">
-        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>O29/60</f>
+        <f>O26/60</f>
       </c>
     </row>
   </sheetData>
@@ -1114,13 +1129,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>iRipple, Inc.</t>
   </si>
   <si>
-    <t>Name: Ardamoy,Ma. Rica Catherine</t>
+    <t>Name: Ardamoy, Ma. Rica Catherine</t>
   </si>
   <si>
     <t>Department: Special Project - Petron</t>
@@ -50,106 +50,111 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>02-10-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>08:14:53</t>
-  </si>
-  <si>
-    <t>13:08:32</t>
-  </si>
-  <si>
-    <t> Others|Pull-out Smartbro sticks fro Sta. Mesa and QC LPG|
-</t>
-  </si>
-  <si>
-    <t>02-11-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>15:34:57</t>
-  </si>
-  <si>
-    <t>19:01:22</t>
-  </si>
-  <si>
-    <t>" Others|Pull-out smarbro stick, re-train PDIS user for Paredes Gasul in Cavite City.|"
-</t>
-  </si>
-  <si>
-    <t>02-12-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>07:52:04</t>
-  </si>
-  <si>
-    <t>18:42:43</t>
+    <t>03-21-2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
   <si>
     <t>
 </t>
   </si>
   <si>
-    <t>02-13-2015</t>
+    <t>03-22-2015</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>03-23-2015</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>08:25:53</t>
+  </si>
+  <si>
+    <t>18:55:59</t>
+  </si>
+  <si>
+    <t>03-24-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>08:27:01</t>
+  </si>
+  <si>
+    <t>13:11:02</t>
+  </si>
+  <si>
+    <t> Others|Mar 24 - Mar 27:  Urdaneta Marketing Corporation Implementation Mar 30 - Apr 1: Nelzen Twins Marketing (Pampanga) Implementation|
+</t>
+  </si>
+  <si>
+    <t>03-25-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>03-26-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>03-27-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>08:13:23</t>
-  </si>
-  <si>
-    <t>17:39:29</t>
-  </si>
-  <si>
-    <t>02-14-2015</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>02-15-2015</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>02-16-2015</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t> Travel to Bataan Gas from 3AM - 7AM. Others|Petron Live Implementation|
-</t>
-  </si>
-  <si>
-    <t>02-17-2015</t>
-  </si>
-  <si>
-    <t> Others|Petron Live Implementation|
-</t>
-  </si>
-  <si>
-    <t>02-18-2015</t>
-  </si>
-  <si>
-    <t>02-19-2015</t>
-  </si>
-  <si>
-    <t> Top Gasul Trading in Pampanga Training. Others|Petron Live Implementation|
-</t>
-  </si>
-  <si>
-    <t>02-20-2015</t>
+    <t>03-28-2015</t>
+  </si>
+  <si>
+    <t>15:48:01</t>
+  </si>
+  <si>
+    <t>16:38:52</t>
+  </si>
+  <si>
+    <t>03-29-2015</t>
+  </si>
+  <si>
+    <t>03-30-2015</t>
+  </si>
+  <si>
+    <t>08:12:51</t>
+  </si>
+  <si>
+    <t>18:42:00</t>
+  </si>
+  <si>
+    <t>03-31-2015</t>
+  </si>
+  <si>
+    <t>08:22:06</t>
+  </si>
+  <si>
+    <t>19:08:14</t>
+  </si>
+  <si>
+    <t>04-01-2015</t>
+  </si>
+  <si>
+    <t>08:31:11</t>
+  </si>
+  <si>
+    <t>19:34:12</t>
+  </si>
+  <si>
+    <t>04-02-2015</t>
+  </si>
+  <si>
+    <t>04-03-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -167,6 +172,9 @@
     <t>TOTAL LEAVES ACCUMULATED</t>
   </si>
   <si>
+    <t>@@cut_off_date.to_date.mon &gt;= self.date_start.to_date.mon &amp;&amp; @@cut_off_date.to_date.mon &lt;= self.date_end.to_date.mon</t>
+  </si>
+  <si>
     <t>ACCUMULATED OT</t>
   </si>
   <si>
@@ -182,10 +190,13 @@
     <t>VL BALANCE</t>
   </si>
   <si>
+    <t>6.5.0</t>
+  </si>
+  <si>
+    <t>SL BALANCE</t>
+  </si>
+  <si>
     <t>7.5.0</t>
-  </si>
-  <si>
-    <t>SL BALANCE</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -305,14 +316,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="53.57022471910113"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="86.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.184831460674157"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="24.434831460674157"/>
@@ -320,7 +331,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="34.33483146067415"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.78988764044945"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="98.78988764044946"/>
     <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
     <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
@@ -382,46 +393,34 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="n">
-        <v>7.25</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -429,29 +428,27 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -462,26 +459,24 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -489,25 +484,23 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -518,22 +511,20 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -544,24 +535,22 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0.0</v>
@@ -570,22 +559,24 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -596,22 +587,20 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -622,24 +611,26 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0.0</v>
@@ -648,22 +639,24 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -674,309 +667,246 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f>COUNT(F5:F15)</f>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>46</v>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f>SUM(F5:F15)</f>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>SUM(G5:G15)</f>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f>SUM(I5:I15)</f>
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f>FLOOR(G18/8,1,1)&amp;"."&amp;FLOOR(MOD(G18,8),1,1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1,1))*60</f>
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f>INT(LEFT(B22,1))</f>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f>RIGHT(B22,LEN(B22)-2)</f>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>INT(LEFT(L21,1))</f>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f>RIGHT(L21,LEN(L21)-2)+0</f>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f>K21*8*60+M21*60+N21</f>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H14)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I14)</f>
       </c>
       <c r="J22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f>INT(LEFT(B23,1))</f>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f>RIGHT(B23,LEN(B23)-2)</f>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>INT(LEFT(L22,1))</f>
-      </c>
-      <c r="N22" s="5" t="str">
-        <f>RIGHT(L22,LEN(L22)-2)+0</f>
-      </c>
-      <c r="O22" s="5" t="str">
-        <f>K22*8*60+M22*60+N22</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>INT(LEFT(B24,1))</f>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>RIGHT(B24,LEN(B24)-2)</f>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>INT(LEFT(L23,1))</f>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>RIGHT(L23,LEN(L23)-2)+0</f>
-      </c>
-      <c r="O23" s="5" t="str">
-        <f>K23*8*60+M23*60+N23</f>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -996,34 +926,34 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -1045,47 +975,47 @@
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>55</v>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>46</v>
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
       </c>
       <c r="M26" s="5" t="str">
-        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
+        <f>INT(LEFT(L26,1))</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
+        <f>K26*8*60+M26*60+N26</f>
       </c>
     </row>
     <row r="27">
@@ -1093,34 +1023,175 @@
         <v>57</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>O26/60</f>
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
@@ -1129,13 +1200,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -32,7 +32,7 @@
     <t>TIME OUT</t>
   </si>
   <si>
-    <t>UT DEPARTURE</t>
+    <t>APPROVED UNDERTIME</t>
   </si>
   <si>
     <t>NO OF HOURS LATE</t>
@@ -326,7 +326,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="86.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.434831460674157"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.68483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.734831460674155"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="34.33483146067415"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
@@ -404,7 +404,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
@@ -456,7 +456,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
@@ -508,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>26</v>
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>26</v>
@@ -556,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>26</v>
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>26</v>
@@ -608,7 +608,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>26</v>
@@ -636,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>26</v>
@@ -664,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>26</v>
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>26</v>
@@ -718,7 +718,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>15</v>
@@ -742,7 +742,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>15</v>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,118 +50,97 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-07-2015</t>
+    <t>02-10-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>08:14:53</t>
+  </si>
+  <si>
+    <t>13:08:32</t>
+  </si>
+  <si>
+    <t>Others|Pull-out Smartbro sticks fro Sta. Mesa and QC LPG|</t>
+  </si>
+  <si>
+    <t>02-11-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>15:34:57</t>
+  </si>
+  <si>
+    <t>19:01:22</t>
+  </si>
+  <si>
+    <t>" Others|Pull-out smarbro stick, re-train PDIS user for Paredes Gasul in Cavite City.|"</t>
+  </si>
+  <si>
+    <t>02-12-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>07:52:04</t>
+  </si>
+  <si>
+    <t>18:42:43</t>
+  </si>
+  <si>
+    <t>02-13-2015</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>08:13:23</t>
+  </si>
+  <si>
+    <t>17:39:29</t>
+  </si>
+  <si>
+    <t>02-14-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>03-08-2015</t>
+    <t>02-15-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-09-2015</t>
+    <t>02-16-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>08:18:30</t>
-  </si>
-  <si>
-    <t>19:26:02</t>
-  </si>
-  <si>
-    <t>03-10-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>08:22:36</t>
-  </si>
-  <si>
-    <t>19:11:11</t>
-  </si>
-  <si>
-    <t>03-11-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>08:09:44</t>
-  </si>
-  <si>
-    <t>19:00:31</t>
-  </si>
-  <si>
-    <t>03-12-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>03-13-2015</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>To use remaining leaves. 2 days starting from 3/12/2015 Thursday to 3/13/2015 Friday.</t>
-  </si>
-  <si>
-    <t>03-14-2015</t>
-  </si>
-  <si>
-    <t>03-15-2015</t>
-  </si>
-  <si>
-    <t>03-16-2015</t>
-  </si>
-  <si>
-    <t>08:10:17</t>
-  </si>
-  <si>
-    <t>18:40:51</t>
-  </si>
-  <si>
-    <t>03-17-2015</t>
-  </si>
-  <si>
-    <t>08:18:07</t>
-  </si>
-  <si>
-    <t>18:34:05</t>
-  </si>
-  <si>
-    <t>03-18-2015</t>
-  </si>
-  <si>
-    <t>08:17:42</t>
-  </si>
-  <si>
-    <t>18:34:43</t>
-  </si>
-  <si>
-    <t>03-19-2015</t>
-  </si>
-  <si>
-    <t>08:15:47</t>
-  </si>
-  <si>
-    <t>18:32:06</t>
-  </si>
-  <si>
-    <t>03-20-2015</t>
-  </si>
-  <si>
-    <t>08:18:56</t>
-  </si>
-  <si>
-    <t>17:35:08</t>
+    <t>Travel to Bataan Gas from 3AM - 7AM. Others|Petron Live Implementation|</t>
+  </si>
+  <si>
+    <t>02-17-2015</t>
+  </si>
+  <si>
+    <t>Others|Petron Live Implementation|</t>
+  </si>
+  <si>
+    <t>02-18-2015</t>
+  </si>
+  <si>
+    <t>02-19-2015</t>
+  </si>
+  <si>
+    <t>Top Gasul Trading in Pampanga Training. Others|Petron Live Implementation|</t>
+  </si>
+  <si>
+    <t>02-20-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -317,7 +296,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -332,7 +311,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="34.33483146067415"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.78988764044945"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="63.58988764044945"/>
     <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
     <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
@@ -394,8 +373,12 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
@@ -407,21 +390,23 @@
       <c r="I5" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
@@ -433,24 +418,22 @@
       <c r="I6" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -471,16 +454,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -501,17 +484,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
@@ -531,10 +510,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -557,31 +536,31 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -599,18 +578,16 @@
       <c r="I12" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -625,29 +602,23 @@
       <c r="I13" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0.0</v>
@@ -655,25 +626,19 @@
       <c r="I14" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J14" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="n">
@@ -685,261 +650,310 @@
       <c r="I15" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="J15" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>COUNT(F5:F15)</f>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>SUM(F5:F15)</f>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>SUM(G5:G15)</f>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>COUNT(F5:F18)</f>
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>SUM(H5:H15)</f>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J19" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f>SUM(F5:F18)</f>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>FLOOR(G18/8,1)&amp;"."&amp;FLOOR(MOD(G18,8),1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1))*60</f>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f>SUM(G5:G18)</f>
+        <v>45</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>INT(LEFT(B22,1))</f>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>RIGHT(B22,LEN(B22)-2)</f>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>INT(LEFT(L21,1))</f>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>RIGHT(L21,LEN(L21)-2)+0</f>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>K21*8*60+M21*60+N21</f>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>SUM(H5:H18)</f>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f>SUM(I5:I18)</f>
+        <v>45</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>45</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>INT(LEFT(B23,1))</f>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>RIGHT(B23,LEN(B23)-2)</f>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>INT(LEFT(L22,1))</f>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>RIGHT(L22,LEN(L22)-2)+0</f>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>K22*8*60+M22*60+N22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>INT(LEFT(B24,1))</f>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>RIGHT(B24,LEN(B24)-2)</f>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>INT(LEFT(L23,1))</f>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>RIGHT(L23,LEN(L23)-2)+0</f>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>K23*8*60+M23*60+N23</f>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -959,34 +973,34 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -1006,225 +1020,84 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="5" t="str">
-        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>INT(LEFT(B27,1))</f>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f>RIGHT(B27,LEN(B27)-2)</f>
+        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f>INT(LEFT(L26,1))</f>
+        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>K26*8*60+M26*60+N26</f>
+        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>INT(LEFT(B28,1))</f>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f>RIGHT(B28,LEN(B28)-2)</f>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>INT(LEFT(L27,1))</f>
-      </c>
-      <c r="N27" s="5" t="str">
-        <f>RIGHT(L27,LEN(L27)-2)+0</f>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f>K27*8*60+M27*60+N27</f>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>INT(LEFT(B29,1))</f>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f>RIGHT(B29,LEN(B29)-2)</f>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>INT(LEFT(L28,1))</f>
-      </c>
-      <c r="N28" s="5" t="str">
-        <f>RIGHT(L28,LEN(L28)-2)+0</f>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f>K28*8*60+M28*60+N28</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
-      </c>
-      <c r="N29" s="5" t="str">
-        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>O29/60</f>
+        <f>O26/60</f>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1106,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="57">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -214,16 +214,46 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A3CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF5E5E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -241,37 +271,79 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -280,6 +352,15 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf borderId="3" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="4" numFmtId="0" fontId="4" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="5" numFmtId="0" fontId="5" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -367,58 +448,58 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -535,122 +616,122 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="n">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="n">
         <v>4.0</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="H11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="n">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="n">
         <v>8.0</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="H14" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -754,8 +835,8 @@
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
+      <c r="B19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>45</v>
@@ -835,7 +916,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="5" t="str">
-        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
+        <f>FLOOR(F17/8,1)&amp;"."&amp;FLOOR(MOD(F17,8),1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1))*60</f>
       </c>
       <c r="C22" s="5" t="s">
         <v>45</v>
@@ -882,7 +963,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="5" t="str">
-        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(H19,1)&amp;"."&amp;(H19-FLOOR(H19,1))*8&amp;".0"</f>
       </c>
       <c r="C23" s="5" t="s">
         <v>45</v>
@@ -929,7 +1010,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(I19,1)&amp;"."&amp;(I19-FLOOR(I19,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
         <v>45</v>
@@ -1070,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
+        <f>FLOOR(K27/8,1)&amp;"."&amp;FLOOR(MOD(K27,8),1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
         <v>45</v>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="72">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -1037,16 +1037,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -1087,20 +1087,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>SUM(E5:E14)</f>
+        <f>SUM(E5:E15)</f>
       </c>
       <c r="F20" s="5" t="s">
         <v>59</v>
@@ -1137,22 +1137,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -1187,25 +1187,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -1238,445 +1238,445 @@
     </row>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="5" t="str">
+      <c r="D24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="0" t="str">
         <f>INT(LEFT(C25,2))</f>
       </c>
-      <c r="R24" s="5" t="str">
+      <c r="R24" s="0" t="str">
         <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
       </c>
-      <c r="S24" s="5" t="str">
+      <c r="S24" s="0" t="str">
         <f>INT(LEFT(R24,1))</f>
       </c>
-      <c r="T24" s="5" t="str">
+      <c r="T24" s="0" t="str">
         <f>RIGHT(R24,LEN(R24)-2)+0</f>
       </c>
-      <c r="U24" s="5" t="str">
+      <c r="U24" s="0" t="str">
         <f>Q24*8*60+S24*60+T24</f>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="5" t="str">
+      <c r="D25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
       </c>
-      <c r="R25" s="5" t="str">
+      <c r="R25" s="0" t="str">
         <f>IF(LEFT(RIGHT(C26,LEN(C26)-2),1)=".",RIGHT(C26,LEN(C26)-3),RIGHT(C26,LEN(C26)-2))</f>
       </c>
-      <c r="S25" s="5" t="str">
+      <c r="S25" s="0" t="str">
         <f>INT(LEFT(R25,1))</f>
       </c>
-      <c r="T25" s="5" t="str">
+      <c r="T25" s="0" t="str">
         <f>RIGHT(R25,LEN(R25)-2)+0</f>
       </c>
-      <c r="U25" s="5" t="str">
+      <c r="U25" s="0" t="str">
         <f>Q25*8*60+S25*60+T25</f>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="5" t="str">
+      <c r="D26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
       </c>
-      <c r="R26" s="5" t="str">
+      <c r="R26" s="0" t="str">
         <f>IF(LEFT(RIGHT(C27,LEN(C27)-2),1)=".",RIGHT(C27,LEN(C27)-3),RIGHT(C27,LEN(C27)-2))</f>
       </c>
-      <c r="S26" s="5" t="str">
+      <c r="S26" s="0" t="str">
         <f>INT(LEFT(R26,1))</f>
       </c>
-      <c r="T26" s="5" t="str">
+      <c r="T26" s="0" t="str">
         <f>RIGHT(R26,LEN(R26)-2)+0</f>
       </c>
-      <c r="U26" s="5" t="str">
+      <c r="U26" s="0" t="str">
         <f>Q26*8*60+S26*60+T26</f>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="5" t="str">
+      <c r="D27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
       </c>
-      <c r="R27" s="5" t="str">
+      <c r="R27" s="0" t="str">
         <f>IF(LEFT(RIGHT(C28,LEN(C28)-2),1)=".",RIGHT(C28,LEN(C28)-3),RIGHT(C28,LEN(C28)-2))</f>
       </c>
-      <c r="S27" s="5" t="str">
+      <c r="S27" s="0" t="str">
         <f>INT(LEFT(R27,1))</f>
       </c>
-      <c r="T27" s="5" t="str">
+      <c r="T27" s="0" t="str">
         <f>RIGHT(R27,LEN(R27)-2)+0</f>
       </c>
-      <c r="U27" s="5" t="str">
+      <c r="U27" s="0" t="str">
         <f>Q27*8*60+S27*60+T27</f>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="5" t="str">
+      <c r="D28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
       </c>
-      <c r="R28" s="5" t="str">
+      <c r="R28" s="0" t="str">
         <f>IF(LEFT(RIGHT(C29,LEN(C29)-2),1)=".",RIGHT(C29,LEN(C29)-3),RIGHT(C29,LEN(C29)-2))</f>
       </c>
-      <c r="S28" s="5" t="str">
+      <c r="S28" s="0" t="str">
         <f>INT(LEFT(R28,1))</f>
       </c>
-      <c r="T28" s="5" t="str">
+      <c r="T28" s="0" t="str">
         <f>RIGHT(R28,LEN(R28)-2)+0</f>
       </c>
-      <c r="U28" s="5" t="str">
+      <c r="U28" s="0" t="str">
         <f>Q28*8*60+S28*60+T28</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="5" t="str">
+      <c r="D29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="0" t="str">
         <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S29" s="5" t="str">
+      <c r="R29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="0" t="str">
         <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
       </c>
-      <c r="T29" s="5" t="str">
+      <c r="T29" s="0" t="str">
         <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
       </c>
-      <c r="U29" s="5" t="str">
+      <c r="U29" s="0" t="str">
         <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="5" t="str">
+      <c r="D30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="0" t="str">
         <f>U29/60</f>
       </c>
     </row>
@@ -1687,13 +1687,13 @@
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F19:P19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F20:P20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J22:P22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="71">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
   </si>
   <si>
     <t>08:30:00</t>
@@ -681,18 +678,14 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6" t="inlineStr">
         <is>
           <t/>
@@ -704,10 +697,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -717,18 +710,14 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6" t="inlineStr">
         <is>
           <t/>
@@ -740,10 +729,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -753,18 +742,14 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="M11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6" t="inlineStr">
         <is>
           <t/>
@@ -776,16 +761,16 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -793,18 +778,14 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6" t="inlineStr">
         <is>
           <t/>
@@ -816,7 +797,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -829,18 +810,14 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="M13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6" t="inlineStr">
         <is>
           <t/>
@@ -852,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -869,18 +846,14 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6" t="inlineStr">
         <is>
           <t/>
@@ -892,16 +865,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -909,18 +882,14 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="N15" s="6"/>
       <c r="O15" s="6" t="inlineStr">
         <is>
           <t/>
@@ -932,16 +901,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.25</v>
@@ -951,18 +920,14 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="5" t="inlineStr">
         <is>
           <t/>
@@ -974,10 +939,10 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1006,10 +971,10 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1038,175 +1003,175 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>COUNT(E5:E15)</f>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>SUM(E5:E15)</f>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="5" t="str">
         <f>SUM(H5:H15)</f>
@@ -1215,76 +1180,76 @@
         <f>SUM(I5:I15)</f>
       </c>
       <c r="J22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="0" t="str">
         <f>INT(LEFT(C25,2))</f>
@@ -1304,52 +1269,52 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
@@ -1369,52 +1334,52 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
@@ -1434,52 +1399,52 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
@@ -1499,52 +1464,52 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
@@ -1564,58 +1529,58 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
       </c>
       <c r="R29" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S29" s="0" t="str">
         <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
@@ -1629,52 +1594,52 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
       </c>
       <c r="D30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f>U29/60</f>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -371,16 +371,16 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="69" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
   </si>
   <si>
     <t>~OB Meeting|</t>
@@ -565,7 +571,9 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -602,25 +610,33 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O7" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -630,25 +646,33 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O8" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -658,25 +682,33 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -686,25 +718,33 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -724,12 +764,12 @@
         </is>
       </c>
       <c r="P11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -759,7 +799,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -789,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -823,16 +863,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -857,16 +897,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -891,16 +931,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -925,16 +965,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -959,175 +999,175 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>COUNT(E5:E18)</f>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>SUM(E5:E18)</f>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H22" s="5" t="str">
         <f>SUM(H5:H18)</f>
@@ -1136,76 +1176,76 @@
         <f>SUM(I5:I18)</f>
       </c>
       <c r="J22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="0" t="str">
         <f>INT(LEFT(C25,2))</f>
@@ -1225,52 +1265,52 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
@@ -1290,52 +1330,52 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
@@ -1355,52 +1395,52 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
@@ -1420,52 +1460,52 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
@@ -1485,58 +1525,58 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
       </c>
       <c r="R29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S29" s="0" t="str">
         <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
@@ -1550,52 +1590,52 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
       </c>
       <c r="D30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f>U29/60</f>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="73" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -194,15 +194,25 @@
     <t>ACCUMULATED OT</t>
   </si>
   <si>
+    <t>Legends:</t>
+  </si>
+  <si>
     <t>LATES</t>
   </si>
   <si>
+    <t>Employee has request(s)/remark(s) for that day.
+*May incur late and/or undertime depending on his or her time-in and time-out.</t>
+  </si>
+  <si>
     <t>ACCUMULATED VL</t>
   </si>
   <si>
     <t>ACCUMULATED SL</t>
   </si>
   <si>
+    <t>Employee is considered half-day because of his time-in or time-out.</t>
+  </si>
+  <si>
     <t>VL BALANCE</t>
   </si>
   <si>
@@ -213,6 +223,9 @@
   </si>
   <si>
     <t>7.4.0</t>
+  </si>
+  <si>
+    <t>Employee has no time-in and therefore, considered as absent.</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -226,7 +239,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -269,9 +282,16 @@
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +313,21 @@
         <fgColor rgb="FFDF5E5E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A3CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF5E5E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border/>
@@ -398,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -418,7 +453,11 @@
     <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="7" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -996,16 +1035,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -1046,16 +1085,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="5" t="str">
@@ -1096,22 +1135,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -1146,25 +1185,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -1197,10 +1236,10 @@
     </row>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="5" t="str">
@@ -1209,40 +1248,40 @@
       <c r="D24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="0" t="s">
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q24" s="0" t="str">
@@ -1262,10 +1301,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="5" t="str">
@@ -1274,40 +1313,40 @@
       <c r="D25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="0" t="s">
+      <c r="E25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1327,10 +1366,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -1339,40 +1378,40 @@
       <c r="D26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="0" t="s">
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1392,10 +1431,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="5" t="str">
@@ -1404,40 +1443,40 @@
       <c r="D27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="E27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q27" s="0" t="str">
@@ -1457,52 +1496,52 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="0" t="s">
+      <c r="E28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q28" s="0" t="str">
@@ -1522,52 +1561,52 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="0" t="s">
+      <c r="E29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q29" s="0" t="str">
@@ -1587,10 +1626,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="5" t="str">
@@ -1599,40 +1638,40 @@
       <c r="D30" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="0" t="s">
+      <c r="E30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q30" s="0" t="str">
@@ -1641,7 +1680,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="18">
+  <mergeCells count="25">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1654,11 +1693,18 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:P28"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="74" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>TOTAL ABSENCES</t>
   </si>
   <si>
     <t>ACCUMULATED OT</t>
@@ -474,7 +477,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="C5" state="frozenSplit" activePane="bottomRight" ySplit="4" xSplit="2"/>
@@ -610,9 +613,7 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1236,119 +1237,106 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+    <row r="23">
+      <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <f>INT(LEFT(C25,2))</f>
-      </c>
-      <c r="R24" s="0" t="str">
-        <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
-      </c>
-      <c r="S24" s="0" t="str">
-        <f>INT(LEFT(R24,1))</f>
-      </c>
-      <c r="T24" s="0" t="str">
-        <f>RIGHT(R24,LEN(R24)-2)+0</f>
-      </c>
-      <c r="U24" s="0" t="str">
-        <f>Q24*8*60+S24*60+T24</f>
-      </c>
-    </row>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
+        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="12" t="s">
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1369,51 +1357,51 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
+        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1434,22 +1422,22 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
+        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>56</v>
@@ -1499,18 +1487,18 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
+      <c r="C28" s="5" t="str">
+        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -1564,22 +1552,22 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>70</v>
+      <c r="C29" s="5" t="str">
+        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>56</v>
@@ -1612,77 +1600,207 @@
         <v>56</v>
       </c>
       <c r="Q29" s="0" t="str">
-        <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>56</v>
+        <f>INT(LEFT(C30,2))</f>
+      </c>
+      <c r="R29" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C30,LEN(C30)-2),1)=".",RIGHT(C30,LEN(C30)-3),RIGHT(C30,LEN(C30)-2))</f>
       </c>
       <c r="S29" s="0" t="str">
-        <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
+        <f>INT(LEFT(R29,1))</f>
       </c>
       <c r="T29" s="0" t="str">
-        <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
+        <f>RIGHT(R29,LEN(R29)-2)+0</f>
       </c>
       <c r="U29" s="0" t="str">
-        <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
+        <f>Q29*8*60+S29*60+T29</f>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="0" t="str">
+        <f>INT(LEFT(C31,2))</f>
+      </c>
+      <c r="R30" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C31,LEN(C31)-2),1)=".",RIGHT(C31,LEN(C31)-3),RIGHT(C31,LEN(C31)-2))</f>
+      </c>
+      <c r="S30" s="0" t="str">
+        <f>INT(LEFT(R30,1))</f>
+      </c>
+      <c r="T30" s="0" t="str">
+        <f>RIGHT(R30,LEN(R30)-2)+0</f>
+      </c>
+      <c r="U30" s="0" t="str">
+        <f>Q30*8*60+S30*60+T30</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="0" t="str">
-        <f>U29/60</f>
+      <c r="G31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="0" t="str">
+        <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" s="0" t="str">
+        <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
+      </c>
+      <c r="T31" s="0" t="str">
+        <f>T26+T25+IF(T27&gt;T29,T27-T29,0)+IF(T28&gt;T30,T28-T30,0)</f>
+      </c>
+      <c r="U31" s="0" t="str">
+        <f>U26+U25+IF(U27&gt;U29,U27-U29,0)+IF(U28&gt;U30,U28-U30,0)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="0" t="str">
+        <f>U31/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="25">
+  <mergeCells count="28">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1694,12 +1812,11 @@
     <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:P23"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:P26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:P28"/>
@@ -1708,6 +1825,10 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:P32"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="74" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="74" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -613,7 +613,9 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>

--- a/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Ardamoy,Ma. Rica Catherine.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="75" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="74" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -68,118 +68,112 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
+    <t>04-25-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>03-22-2015</t>
+    <t>04-26-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>09:39:30</t>
+  </si>
+  <si>
+    <t>04-27-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>08:25:53</t>
-  </si>
-  <si>
-    <t>18:55:59</t>
-  </si>
-  <si>
-    <t>03-24-2015</t>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>~OB Meeting|</t>
+  </si>
+  <si>
+    <t>04-28-2015</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>08:27:01</t>
-  </si>
-  <si>
-    <t>13:11:02</t>
-  </si>
-  <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
-    <t>~OB Others|Mar 24 - Mar 27:  Urdaneta Marketing Corporation Implementation Mar 30 - Apr 1: Nelzen Twins Marketing (Pampanga) Implementation|</t>
-  </si>
-  <si>
-    <t>03-25-2015</t>
+    <t>04-29-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>03-26-2015</t>
+    <t>04-30-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>03-27-2015</t>
+    <t>05-01-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>15:48:01</t>
-  </si>
-  <si>
-    <t>16:38:52</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>08:12:51</t>
-  </si>
-  <si>
-    <t>18:42:00</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>08:22:06</t>
-  </si>
-  <si>
-    <t>19:08:14</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>08:31:11</t>
-  </si>
-  <si>
-    <t>19:34:12</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Maundy Thursday ( Regular Holiday )</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Good Friday ( Regular Holiday )</t>
+    <t>~Special Day - Labor ( Regular Holiday )</t>
+  </si>
+  <si>
+    <t>05-02-2015</t>
+  </si>
+  <si>
+    <t>05-03-2015</t>
+  </si>
+  <si>
+    <t>05-04-2015</t>
+  </si>
+  <si>
+    <t>08:17:15</t>
+  </si>
+  <si>
+    <t>18:40:07</t>
+  </si>
+  <si>
+    <t>05-05-2015</t>
+  </si>
+  <si>
+    <t>08:19:28</t>
+  </si>
+  <si>
+    <t>19:49:09</t>
+  </si>
+  <si>
+    <t>05-06-2015</t>
+  </si>
+  <si>
+    <t>08:23:46</t>
+  </si>
+  <si>
+    <t>19:58:46</t>
+  </si>
+  <si>
+    <t>05-07-2015</t>
+  </si>
+  <si>
+    <t>07:08:21</t>
+  </si>
+  <si>
+    <t>19:22:36</t>
+  </si>
+  <si>
+    <t>05-08-2015</t>
+  </si>
+  <si>
+    <t>08:24:07</t>
+  </si>
+  <si>
+    <t>19:25:06</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -225,10 +219,13 @@
     <t>VL BALANCE</t>
   </si>
   <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>SL BALANCE</t>
+  </si>
+  <si>
     <t>7.4.0</t>
-  </si>
-  <si>
-    <t>SL BALANCE</t>
   </si>
   <si>
     <t>Employee has no time-in and therefore, considered as absent.</t>
@@ -691,7 +688,9 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -715,52 +714,50 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P7" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="L7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -768,16 +765,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O8" s="9" t="inlineStr">
         <is>
@@ -785,15 +782,15 @@
         </is>
       </c>
       <c r="P8" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -804,16 +801,16 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O9" s="9" t="inlineStr">
         <is>
@@ -821,15 +818,15 @@
         </is>
       </c>
       <c r="P9" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -840,16 +837,16 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O10" s="9" t="inlineStr">
         <is>
@@ -857,15 +854,15 @@
         </is>
       </c>
       <c r="P10" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -875,593 +872,561 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P13" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P16" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>56</v>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="17" t="str">
-        <f>COUNT(E5:E15)</f>
+        <f>COUNT(E5:E18)</f>
       </c>
       <c r="F19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f>SUM(E5:E15)</f>
+        <f>SUM(E5:E18)</f>
       </c>
       <c r="F20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" s="17" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="6" t="str">
-        <f>SUM(I5:I15)</f>
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="17" t="str">
+        <f>SUM(I5:I18)</f>
       </c>
       <c r="J22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I23" s="17" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="17" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
@@ -1469,37 +1434,37 @@
         </is>
       </c>
       <c r="F25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
@@ -1519,52 +1484,52 @@
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="17" t="str">
+        <f>FLOOR(I23,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1))*60</f>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="17" t="str">
-        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
@@ -1584,52 +1549,52 @@
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="17" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
@@ -1649,52 +1614,52 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="17" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
@@ -1714,52 +1679,52 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="17" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f>INT(LEFT(C30,2))</f>
@@ -1779,52 +1744,52 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f>INT(LEFT(C31,2))</f>
@@ -1844,58 +1809,58 @@
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="0" t="str">
         <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
       </c>
       <c r="R31" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S31" s="0" t="str">
         <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
@@ -1909,52 +1874,52 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="17" t="str">
         <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
       </c>
       <c r="D32" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="0" t="str">
         <f>U31/60</f>
@@ -1962,52 +1927,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
